--- a/Results/Notebook 2 Example 2/Scores/problem_2_instance1_scores.xlsx
+++ b/Results/Notebook 2 Example 2/Scores/problem_2_instance1_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01865880343088183</v>
+        <v>0.01900254227964501</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1716942173209584</v>
+        <v>0.2096779636302306</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07794514927364292</v>
+        <v>0.05681013924720223</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2536389915079255</v>
+        <v>0.2182627364139333</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9182698709542816</v>
+        <v>0.8766164083541255</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4163886221307199</v>
+        <v>0.4433754341917704</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9964880606648359</v>
+        <v>0.9933820554737847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3651060739983172</v>
+        <v>0.3818292616081996</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9866212519324408</v>
+        <v>0.9802102477359591</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8173399898711382</v>
+        <v>0.8092171988767494</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9764675074013698</v>
+        <v>0.9528082279664156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2901769567588405</v>
+        <v>0.3023678360306385</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005177438259124756</v>
+        <v>0.009752786755561828</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1861883401870728</v>
+        <v>0.1822593879699707</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2448997900702902</v>
+        <v>0.1678093798411143</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3085770689025379</v>
+        <v>0.2054546806956996</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4549743065257139</v>
+        <v>0.6938283950552282</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1945331916316892</v>
+        <v>0.4134112841906342</v>
       </c>
     </row>
   </sheetData>
